--- a/organizations_0_region.xlsx
+++ b/organizations_0_region.xlsx
@@ -435,10 +435,10 @@
         <v>0.03963011889035667</v>
       </c>
       <c r="E2">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F2">
-        <v>3813.025099075297</v>
+        <v>3913.025099075297</v>
       </c>
       <c r="G2">
         <v>26.402</v>
@@ -458,10 +458,10 @@
         <v>0.07926023778071334</v>
       </c>
       <c r="E3">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F3">
-        <v>3826.050198150594</v>
+        <v>3926.050198150594</v>
       </c>
       <c r="G3">
         <v>52.804</v>
@@ -481,10 +481,10 @@
         <v>0.11889035667107</v>
       </c>
       <c r="E4">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F4">
-        <v>3839.075297225892</v>
+        <v>3939.075297225892</v>
       </c>
       <c r="G4">
         <v>79.206</v>
@@ -504,10 +504,10 @@
         <v>0.1585204755614267</v>
       </c>
       <c r="E5">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F5">
-        <v>3852.100396301189</v>
+        <v>3952.100396301189</v>
       </c>
       <c r="G5">
         <v>105.608</v>
@@ -527,10 +527,10 @@
         <v>0.1981505944517833</v>
       </c>
       <c r="E6">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F6">
-        <v>3865.125495376486</v>
+        <v>3965.125495376486</v>
       </c>
       <c r="G6">
         <v>132.01</v>
@@ -550,10 +550,10 @@
         <v>0.23778071334214</v>
       </c>
       <c r="E7">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F7">
-        <v>3878.150594451783</v>
+        <v>3978.150594451783</v>
       </c>
       <c r="G7">
         <v>158.412</v>
@@ -573,10 +573,10 @@
         <v>0.2774108322324967</v>
       </c>
       <c r="E8">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F8">
-        <v>3891.175693527081</v>
+        <v>3991.175693527081</v>
       </c>
       <c r="G8">
         <v>184.814</v>
@@ -596,10 +596,10 @@
         <v>0.3170409511228534</v>
       </c>
       <c r="E9">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F9">
-        <v>3904.200792602378</v>
+        <v>4004.200792602378</v>
       </c>
       <c r="G9">
         <v>211.216</v>
@@ -619,10 +619,10 @@
         <v>0.35667107001321</v>
       </c>
       <c r="E10">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F10">
-        <v>3917.225891677675</v>
+        <v>4017.225891677675</v>
       </c>
       <c r="G10">
         <v>237.618</v>
@@ -642,10 +642,10 @@
         <v>0.3963011889035667</v>
       </c>
       <c r="E11">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F11">
-        <v>3930.250990752972</v>
+        <v>4030.250990752972</v>
       </c>
       <c r="G11">
         <v>264.02</v>
@@ -665,10 +665,10 @@
         <v>0.4359313077939234</v>
       </c>
       <c r="E12">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F12">
-        <v>3943.27608982827</v>
+        <v>4043.27608982827</v>
       </c>
       <c r="G12">
         <v>290.422</v>
@@ -688,10 +688,10 @@
         <v>0.47556142668428</v>
       </c>
       <c r="E13">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F13">
-        <v>3956.301188903567</v>
+        <v>4056.301188903567</v>
       </c>
       <c r="G13">
         <v>316.824</v>
@@ -711,10 +711,10 @@
         <v>0.5151915455746368</v>
       </c>
       <c r="E14">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F14">
-        <v>3969.326287978864</v>
+        <v>4069.326287978864</v>
       </c>
       <c r="G14">
         <v>343.226</v>
@@ -734,10 +734,10 @@
         <v>0.5548216644649934</v>
       </c>
       <c r="E15">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F15">
-        <v>3982.351387054161</v>
+        <v>4082.351387054161</v>
       </c>
       <c r="G15">
         <v>369.628</v>
@@ -757,10 +757,10 @@
         <v>0.59445178335535</v>
       </c>
       <c r="E16">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F16">
-        <v>3995.376486129458</v>
+        <v>4095.376486129458</v>
       </c>
       <c r="G16">
         <v>396.03</v>
@@ -780,10 +780,10 @@
         <v>0.6340819022457067</v>
       </c>
       <c r="E17">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F17">
-        <v>4008.401585204756</v>
+        <v>4108.401585204756</v>
       </c>
       <c r="G17">
         <v>422.432</v>
@@ -803,10 +803,10 @@
         <v>0.6737120211360634</v>
       </c>
       <c r="E18">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F18">
-        <v>4021.426684280053</v>
+        <v>4121.426684280053</v>
       </c>
       <c r="G18">
         <v>448.834</v>
@@ -826,10 +826,10 @@
         <v>0.71334214002642</v>
       </c>
       <c r="E19">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F19">
-        <v>4034.45178335535</v>
+        <v>4134.45178335535</v>
       </c>
       <c r="G19">
         <v>475.236</v>
@@ -849,10 +849,10 @@
         <v>0.7529722589167767</v>
       </c>
       <c r="E20">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F20">
-        <v>4047.476882430647</v>
+        <v>4147.476882430647</v>
       </c>
       <c r="G20">
         <v>501.638</v>
@@ -872,10 +872,10 @@
         <v>0.7926023778071334</v>
       </c>
       <c r="E21">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F21">
-        <v>4060.501981505945</v>
+        <v>4160.501981505944</v>
       </c>
       <c r="G21">
         <v>528.04</v>
@@ -895,10 +895,10 @@
         <v>0.8322324966974901</v>
       </c>
       <c r="E22">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F22">
-        <v>4073.527080581242</v>
+        <v>4173.527080581242</v>
       </c>
       <c r="G22">
         <v>554.442</v>
@@ -918,10 +918,10 @@
         <v>0.8718626155878467</v>
       </c>
       <c r="E23">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F23">
-        <v>4086.552179656539</v>
+        <v>4186.552179656539</v>
       </c>
       <c r="G23">
         <v>580.8440000000001</v>
@@ -941,10 +941,10 @@
         <v>0.9114927344782033</v>
       </c>
       <c r="E24">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F24">
-        <v>4099.577278731836</v>
+        <v>4199.577278731836</v>
       </c>
       <c r="G24">
         <v>607.246</v>
@@ -964,10 +964,10 @@
         <v>0.9511228533685601</v>
       </c>
       <c r="E25">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F25">
-        <v>4112.602377807133</v>
+        <v>4212.602377807133</v>
       </c>
       <c r="G25">
         <v>633.648</v>
@@ -987,10 +987,10 @@
         <v>0.9907529722589168</v>
       </c>
       <c r="E26">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F26">
-        <v>4125.627476882431</v>
+        <v>4225.627476882431</v>
       </c>
       <c r="G26">
         <v>660.0500000000001</v>
@@ -1010,10 +1010,10 @@
         <v>1.030383091149274</v>
       </c>
       <c r="E27">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F27">
-        <v>4138.652575957728</v>
+        <v>4238.652575957728</v>
       </c>
       <c r="G27">
         <v>686.452</v>
@@ -1033,10 +1033,10 @@
         <v>1.07001321003963</v>
       </c>
       <c r="E28">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F28">
-        <v>4151.677675033025</v>
+        <v>4251.677675033025</v>
       </c>
       <c r="G28">
         <v>712.854</v>
@@ -1056,10 +1056,10 @@
         <v>1.109643328929987</v>
       </c>
       <c r="E29">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F29">
-        <v>4164.702774108322</v>
+        <v>4264.702774108322</v>
       </c>
       <c r="G29">
         <v>739.2560000000001</v>
@@ -1079,10 +1079,10 @@
         <v>1.149273447820343</v>
       </c>
       <c r="E30">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F30">
-        <v>4177.72787318362</v>
+        <v>4277.72787318362</v>
       </c>
       <c r="G30">
         <v>765.658</v>
@@ -1102,10 +1102,10 @@
         <v>1.1889035667107</v>
       </c>
       <c r="E31">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F31">
-        <v>4190.752972258917</v>
+        <v>4290.752972258917</v>
       </c>
       <c r="G31">
         <v>792.0600000000001</v>
@@ -1125,10 +1125,10 @@
         <v>1.228533685601057</v>
       </c>
       <c r="E32">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F32">
-        <v>4203.778071334214</v>
+        <v>4303.778071334214</v>
       </c>
       <c r="G32">
         <v>818.462</v>
@@ -1148,10 +1148,10 @@
         <v>1.268163804491413</v>
       </c>
       <c r="E33">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F33">
-        <v>4216.803170409511</v>
+        <v>4316.803170409511</v>
       </c>
       <c r="G33">
         <v>844.864</v>
@@ -1171,10 +1171,10 @@
         <v>1.30779392338177</v>
       </c>
       <c r="E34">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F34">
-        <v>4229.828269484809</v>
+        <v>4329.828269484809</v>
       </c>
       <c r="G34">
         <v>871.2660000000001</v>
@@ -1194,10 +1194,10 @@
         <v>1.347424042272127</v>
       </c>
       <c r="E35">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F35">
-        <v>4242.853368560106</v>
+        <v>4342.853368560106</v>
       </c>
       <c r="G35">
         <v>897.668</v>
@@ -1217,10 +1217,10 @@
         <v>1.387054161162483</v>
       </c>
       <c r="E36">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F36">
-        <v>4255.878467635403</v>
+        <v>4355.878467635403</v>
       </c>
       <c r="G36">
         <v>924.0700000000001</v>
@@ -1240,10 +1240,10 @@
         <v>1.42668428005284</v>
       </c>
       <c r="E37">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F37">
-        <v>4268.9035667107</v>
+        <v>4368.9035667107</v>
       </c>
       <c r="G37">
         <v>950.472</v>
@@ -1263,10 +1263,10 @@
         <v>1.466314398943197</v>
       </c>
       <c r="E38">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F38">
-        <v>4281.928665785998</v>
+        <v>4381.928665785998</v>
       </c>
       <c r="G38">
         <v>976.874</v>
@@ -1286,10 +1286,10 @@
         <v>1.505944517833553</v>
       </c>
       <c r="E39">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F39">
-        <v>4294.953764861295</v>
+        <v>4394.953764861295</v>
       </c>
       <c r="G39">
         <v>1003.276</v>
@@ -1309,10 +1309,10 @@
         <v>1.54557463672391</v>
       </c>
       <c r="E40">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F40">
-        <v>4307.978863936592</v>
+        <v>4407.978863936592</v>
       </c>
       <c r="G40">
         <v>1029.678</v>
@@ -1332,10 +1332,10 @@
         <v>1.585204755614267</v>
       </c>
       <c r="E41">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F41">
-        <v>4321.003963011889</v>
+        <v>4421.003963011889</v>
       </c>
       <c r="G41">
         <v>1056.08</v>
@@ -1355,10 +1355,10 @@
         <v>1.624834874504623</v>
       </c>
       <c r="E42">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F42">
-        <v>4334.029062087187</v>
+        <v>4434.029062087187</v>
       </c>
       <c r="G42">
         <v>1082.482</v>
@@ -1378,10 +1378,10 @@
         <v>1.66446499339498</v>
       </c>
       <c r="E43">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F43">
-        <v>4347.054161162483</v>
+        <v>4447.054161162483</v>
       </c>
       <c r="G43">
         <v>1108.884</v>
@@ -1401,10 +1401,10 @@
         <v>1.704095112285337</v>
       </c>
       <c r="E44">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F44">
-        <v>4360.079260237781</v>
+        <v>4460.079260237781</v>
       </c>
       <c r="G44">
         <v>1135.286</v>
@@ -1424,10 +1424,10 @@
         <v>1.743725231175693</v>
       </c>
       <c r="E45">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F45">
-        <v>4373.104359313078</v>
+        <v>4473.104359313078</v>
       </c>
       <c r="G45">
         <v>1161.688</v>
@@ -1447,10 +1447,10 @@
         <v>1.78335535006605</v>
       </c>
       <c r="E46">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F46">
-        <v>4386.129458388375</v>
+        <v>4486.129458388375</v>
       </c>
       <c r="G46">
         <v>1188.09</v>
@@ -1470,10 +1470,10 @@
         <v>1.822985468956407</v>
       </c>
       <c r="E47">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F47">
-        <v>4399.154557463672</v>
+        <v>4499.154557463672</v>
       </c>
       <c r="G47">
         <v>1214.492</v>
@@ -1493,10 +1493,10 @@
         <v>1.862615587846763</v>
       </c>
       <c r="E48">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F48">
-        <v>4412.17965653897</v>
+        <v>4512.17965653897</v>
       </c>
       <c r="G48">
         <v>1240.894</v>
@@ -1516,10 +1516,10 @@
         <v>1.90224570673712</v>
       </c>
       <c r="E49">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F49">
-        <v>4425.204755614267</v>
+        <v>4525.204755614267</v>
       </c>
       <c r="G49">
         <v>1267.296</v>
@@ -1539,10 +1539,10 @@
         <v>1.941875825627477</v>
       </c>
       <c r="E50">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F50">
-        <v>4438.229854689564</v>
+        <v>4538.229854689564</v>
       </c>
       <c r="G50">
         <v>1293.698</v>
@@ -1562,10 +1562,10 @@
         <v>1.981505944517834</v>
       </c>
       <c r="E51">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F51">
-        <v>4451.254953764861</v>
+        <v>4551.254953764861</v>
       </c>
       <c r="G51">
         <v>1320.1</v>
@@ -1585,10 +1585,10 @@
         <v>2.02113606340819</v>
       </c>
       <c r="E52">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F52">
-        <v>4464.280052840159</v>
+        <v>4564.280052840159</v>
       </c>
       <c r="G52">
         <v>1346.502</v>
@@ -1608,10 +1608,10 @@
         <v>2.060766182298547</v>
       </c>
       <c r="E53">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F53">
-        <v>4477.305151915456</v>
+        <v>4577.305151915456</v>
       </c>
       <c r="G53">
         <v>1372.904</v>
@@ -1631,10 +1631,10 @@
         <v>2.100396301188904</v>
       </c>
       <c r="E54">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F54">
-        <v>4490.330250990753</v>
+        <v>4590.330250990753</v>
       </c>
       <c r="G54">
         <v>1399.306</v>
@@ -1654,10 +1654,10 @@
         <v>2.14002642007926</v>
       </c>
       <c r="E55">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F55">
-        <v>4503.35535006605</v>
+        <v>4603.35535006605</v>
       </c>
       <c r="G55">
         <v>1425.708</v>
@@ -1677,10 +1677,10 @@
         <v>2.179656538969617</v>
       </c>
       <c r="E56">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F56">
-        <v>4516.380449141348</v>
+        <v>4616.380449141348</v>
       </c>
       <c r="G56">
         <v>1452.11</v>
@@ -1700,10 +1700,10 @@
         <v>2.219286657859973</v>
       </c>
       <c r="E57">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F57">
-        <v>4529.405548216645</v>
+        <v>4629.405548216645</v>
       </c>
       <c r="G57">
         <v>1478.512</v>
@@ -1723,10 +1723,10 @@
         <v>2.25891677675033</v>
       </c>
       <c r="E58">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F58">
-        <v>4542.430647291942</v>
+        <v>4642.430647291942</v>
       </c>
       <c r="G58">
         <v>1504.914</v>
@@ -1746,10 +1746,10 @@
         <v>2.298546895640687</v>
       </c>
       <c r="E59">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F59">
-        <v>4555.455746367239</v>
+        <v>4655.455746367239</v>
       </c>
       <c r="G59">
         <v>1531.316</v>
@@ -1769,10 +1769,10 @@
         <v>2.338177014531043</v>
       </c>
       <c r="E60">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F60">
-        <v>4568.480845442537</v>
+        <v>4668.480845442537</v>
       </c>
       <c r="G60">
         <v>1557.718</v>
@@ -1792,10 +1792,10 @@
         <v>2.3778071334214</v>
       </c>
       <c r="E61">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F61">
-        <v>4581.505944517834</v>
+        <v>4681.505944517834</v>
       </c>
       <c r="G61">
         <v>1584.12</v>
@@ -1815,10 +1815,10 @@
         <v>2.417437252311757</v>
       </c>
       <c r="E62">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F62">
-        <v>4594.531043593131</v>
+        <v>4694.531043593131</v>
       </c>
       <c r="G62">
         <v>1610.522</v>
@@ -1838,10 +1838,10 @@
         <v>2.457067371202113</v>
       </c>
       <c r="E63">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F63">
-        <v>4607.556142668428</v>
+        <v>4707.556142668428</v>
       </c>
       <c r="G63">
         <v>1636.924</v>
@@ -1861,10 +1861,10 @@
         <v>2.49669749009247</v>
       </c>
       <c r="E64">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F64">
-        <v>4620.581241743726</v>
+        <v>4720.581241743726</v>
       </c>
       <c r="G64">
         <v>1663.326</v>
@@ -1884,10 +1884,10 @@
         <v>2.536327608982827</v>
       </c>
       <c r="E65">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F65">
-        <v>4633.606340819022</v>
+        <v>4733.606340819022</v>
       </c>
       <c r="G65">
         <v>1689.728</v>
@@ -1907,10 +1907,10 @@
         <v>2.575957727873183</v>
       </c>
       <c r="E66">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F66">
-        <v>4646.63143989432</v>
+        <v>4746.63143989432</v>
       </c>
       <c r="G66">
         <v>1716.13</v>
@@ -1930,10 +1930,10 @@
         <v>2.61558784676354</v>
       </c>
       <c r="E67">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F67">
-        <v>4659.656538969617</v>
+        <v>4759.656538969617</v>
       </c>
       <c r="G67">
         <v>1742.532</v>
@@ -1953,10 +1953,10 @@
         <v>2.655217965653897</v>
       </c>
       <c r="E68">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F68">
-        <v>4672.681638044915</v>
+        <v>4772.681638044915</v>
       </c>
       <c r="G68">
         <v>1768.934</v>
@@ -1976,10 +1976,10 @@
         <v>2.694848084544254</v>
       </c>
       <c r="E69">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F69">
-        <v>4685.706737120211</v>
+        <v>4785.706737120211</v>
       </c>
       <c r="G69">
         <v>1795.336</v>
@@ -1999,10 +1999,10 @@
         <v>2.73447820343461</v>
       </c>
       <c r="E70">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F70">
-        <v>4698.731836195509</v>
+        <v>4798.731836195509</v>
       </c>
       <c r="G70">
         <v>1821.738</v>
@@ -2022,10 +2022,10 @@
         <v>2.774108322324967</v>
       </c>
       <c r="E71">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F71">
-        <v>4711.756935270806</v>
+        <v>4811.756935270806</v>
       </c>
       <c r="G71">
         <v>1848.14</v>
@@ -2045,10 +2045,10 @@
         <v>2.813738441215324</v>
       </c>
       <c r="E72">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F72">
-        <v>4724.782034346104</v>
+        <v>4824.782034346104</v>
       </c>
       <c r="G72">
         <v>1874.542</v>
@@ -2068,10 +2068,10 @@
         <v>2.85336856010568</v>
       </c>
       <c r="E73">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F73">
-        <v>4737.8071334214</v>
+        <v>4837.8071334214</v>
       </c>
       <c r="G73">
         <v>1900.944</v>
@@ -2091,10 +2091,10 @@
         <v>2.892998678996037</v>
       </c>
       <c r="E74">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F74">
-        <v>4750.832232496698</v>
+        <v>4850.832232496698</v>
       </c>
       <c r="G74">
         <v>1927.346</v>
@@ -2114,10 +2114,10 @@
         <v>2.932628797886394</v>
       </c>
       <c r="E75">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F75">
-        <v>4763.857331571995</v>
+        <v>4863.857331571995</v>
       </c>
       <c r="G75">
         <v>1953.748</v>
@@ -2137,10 +2137,10 @@
         <v>2.97225891677675</v>
       </c>
       <c r="E76">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F76">
-        <v>4776.882430647292</v>
+        <v>4876.882430647292</v>
       </c>
       <c r="G76">
         <v>1980.15</v>
@@ -2160,10 +2160,10 @@
         <v>3.011889035667107</v>
       </c>
       <c r="E77">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F77">
-        <v>4789.907529722589</v>
+        <v>4889.907529722589</v>
       </c>
       <c r="G77">
         <v>2006.552</v>
@@ -2183,10 +2183,10 @@
         <v>3.051519154557464</v>
       </c>
       <c r="E78">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F78">
-        <v>4802.932628797887</v>
+        <v>4902.932628797887</v>
       </c>
       <c r="G78">
         <v>2032.954</v>
@@ -2206,10 +2206,10 @@
         <v>3.09114927344782</v>
       </c>
       <c r="E79">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F79">
-        <v>4815.957727873183</v>
+        <v>4915.957727873183</v>
       </c>
       <c r="G79">
         <v>2059.356</v>
@@ -2229,10 +2229,10 @@
         <v>3.130779392338177</v>
       </c>
       <c r="E80">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F80">
-        <v>4828.982826948481</v>
+        <v>4928.982826948481</v>
       </c>
       <c r="G80">
         <v>2085.758</v>
@@ -2252,10 +2252,10 @@
         <v>3.170409511228534</v>
       </c>
       <c r="E81">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F81">
-        <v>4842.007926023778</v>
+        <v>4942.007926023778</v>
       </c>
       <c r="G81">
         <v>2112.16</v>
@@ -2275,10 +2275,10 @@
         <v>3.21003963011889</v>
       </c>
       <c r="E82">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F82">
-        <v>4855.033025099076</v>
+        <v>4955.033025099076</v>
       </c>
       <c r="G82">
         <v>2138.562</v>
@@ -2298,10 +2298,10 @@
         <v>3.249669749009247</v>
       </c>
       <c r="E83">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F83">
-        <v>4868.058124174373</v>
+        <v>4968.058124174373</v>
       </c>
       <c r="G83">
         <v>2164.964</v>
@@ -2321,10 +2321,10 @@
         <v>3.289299867899603</v>
       </c>
       <c r="E84">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F84">
-        <v>4881.08322324967</v>
+        <v>4981.08322324967</v>
       </c>
       <c r="G84">
         <v>2191.366</v>
@@ -2344,10 +2344,10 @@
         <v>3.32892998678996</v>
       </c>
       <c r="E85">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F85">
-        <v>4894.108322324967</v>
+        <v>4994.108322324967</v>
       </c>
       <c r="G85">
         <v>2217.768</v>
@@ -2367,10 +2367,10 @@
         <v>3.368560105680317</v>
       </c>
       <c r="E86">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F86">
-        <v>4907.133421400264</v>
+        <v>5007.133421400264</v>
       </c>
       <c r="G86">
         <v>2244.17</v>
@@ -2390,10 +2390,10 @@
         <v>3.408190224570673</v>
       </c>
       <c r="E87">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F87">
-        <v>4920.158520475561</v>
+        <v>5020.158520475561</v>
       </c>
       <c r="G87">
         <v>2270.572</v>
@@ -2413,10 +2413,10 @@
         <v>3.44782034346103</v>
       </c>
       <c r="E88">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F88">
-        <v>4933.183619550859</v>
+        <v>5033.183619550859</v>
       </c>
       <c r="G88">
         <v>2296.974</v>
@@ -2436,10 +2436,10 @@
         <v>3.487450462351387</v>
       </c>
       <c r="E89">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F89">
-        <v>4946.208718626156</v>
+        <v>5046.208718626156</v>
       </c>
       <c r="G89">
         <v>2323.376</v>
@@ -2459,10 +2459,10 @@
         <v>3.527080581241743</v>
       </c>
       <c r="E90">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F90">
-        <v>4959.233817701454</v>
+        <v>5059.233817701454</v>
       </c>
       <c r="G90">
         <v>2349.778</v>
@@ -2482,10 +2482,10 @@
         <v>3.5667107001321</v>
       </c>
       <c r="E91">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F91">
-        <v>4972.25891677675</v>
+        <v>5072.25891677675</v>
       </c>
       <c r="G91">
         <v>2376.18</v>
@@ -2505,10 +2505,10 @@
         <v>3.606340819022457</v>
       </c>
       <c r="E92">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F92">
-        <v>4985.284015852048</v>
+        <v>5085.284015852048</v>
       </c>
       <c r="G92">
         <v>2402.582</v>
@@ -2528,10 +2528,10 @@
         <v>3.645970937912813</v>
       </c>
       <c r="E93">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F93">
-        <v>4998.309114927344</v>
+        <v>5098.309114927344</v>
       </c>
       <c r="G93">
         <v>2428.984</v>
@@ -2551,10 +2551,10 @@
         <v>3.68560105680317</v>
       </c>
       <c r="E94">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F94">
-        <v>5011.334214002642</v>
+        <v>5111.334214002642</v>
       </c>
       <c r="G94">
         <v>2455.386</v>
@@ -2574,10 +2574,10 @@
         <v>3.725231175693527</v>
       </c>
       <c r="E95">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F95">
-        <v>5024.359313077939</v>
+        <v>5124.359313077939</v>
       </c>
       <c r="G95">
         <v>2481.788</v>
@@ -2597,10 +2597,10 @@
         <v>3.764861294583884</v>
       </c>
       <c r="E96">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F96">
-        <v>5037.384412153237</v>
+        <v>5137.384412153237</v>
       </c>
       <c r="G96">
         <v>2508.19</v>
@@ -2620,10 +2620,10 @@
         <v>3.80449141347424</v>
       </c>
       <c r="E97">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F97">
-        <v>5050.409511228534</v>
+        <v>5150.409511228534</v>
       </c>
       <c r="G97">
         <v>2534.592</v>
@@ -2643,10 +2643,10 @@
         <v>3.844121532364597</v>
       </c>
       <c r="E98">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F98">
-        <v>5063.434610303832</v>
+        <v>5163.434610303832</v>
       </c>
       <c r="G98">
         <v>2560.994</v>
@@ -2666,10 +2666,10 @@
         <v>3.883751651254954</v>
       </c>
       <c r="E99">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F99">
-        <v>5076.459709379128</v>
+        <v>5176.459709379128</v>
       </c>
       <c r="G99">
         <v>2587.396</v>
@@ -2689,10 +2689,10 @@
         <v>3.92338177014531</v>
       </c>
       <c r="E100">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F100">
-        <v>5089.484808454426</v>
+        <v>5189.484808454426</v>
       </c>
       <c r="G100">
         <v>2613.798</v>
@@ -2712,10 +2712,10 @@
         <v>3.963011889035667</v>
       </c>
       <c r="E101">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F101">
-        <v>5102.509907529723</v>
+        <v>5202.509907529723</v>
       </c>
       <c r="G101">
         <v>2640.2</v>
@@ -2735,10 +2735,10 @@
         <v>4.002642007926023</v>
       </c>
       <c r="E102">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F102">
-        <v>5115.53500660502</v>
+        <v>5215.53500660502</v>
       </c>
       <c r="G102">
         <v>2666.602</v>
@@ -2758,10 +2758,10 @@
         <v>4.04227212681638</v>
       </c>
       <c r="E103">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F103">
-        <v>5128.560105680317</v>
+        <v>5228.560105680317</v>
       </c>
       <c r="G103">
         <v>2693.004</v>
@@ -2781,10 +2781,10 @@
         <v>4.081902245706737</v>
       </c>
       <c r="E104">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F104">
-        <v>5141.585204755615</v>
+        <v>5241.585204755615</v>
       </c>
       <c r="G104">
         <v>2719.406</v>
@@ -2804,10 +2804,10 @@
         <v>4.121532364597094</v>
       </c>
       <c r="E105">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F105">
-        <v>5154.610303830912</v>
+        <v>5254.610303830912</v>
       </c>
       <c r="G105">
         <v>2745.808</v>
@@ -2827,10 +2827,10 @@
         <v>4.16116248348745</v>
       </c>
       <c r="E106">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F106">
-        <v>5167.635402906209</v>
+        <v>5267.635402906209</v>
       </c>
       <c r="G106">
         <v>2772.21</v>
@@ -2850,10 +2850,10 @@
         <v>4.200792602377807</v>
       </c>
       <c r="E107">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F107">
-        <v>5180.660501981506</v>
+        <v>5280.660501981506</v>
       </c>
       <c r="G107">
         <v>2798.612</v>
@@ -2873,10 +2873,10 @@
         <v>4.240422721268164</v>
       </c>
       <c r="E108">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F108">
-        <v>5193.685601056803</v>
+        <v>5293.685601056803</v>
       </c>
       <c r="G108">
         <v>2825.014</v>
@@ -2896,10 +2896,10 @@
         <v>4.28005284015852</v>
       </c>
       <c r="E109">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F109">
-        <v>5206.7107001321</v>
+        <v>5306.7107001321</v>
       </c>
       <c r="G109">
         <v>2851.416</v>
@@ -2919,10 +2919,10 @@
         <v>4.319682959048877</v>
       </c>
       <c r="E110">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F110">
-        <v>5219.735799207398</v>
+        <v>5319.735799207398</v>
       </c>
       <c r="G110">
         <v>2877.818</v>
@@ -2942,10 +2942,10 @@
         <v>4.359313077939234</v>
       </c>
       <c r="E111">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F111">
-        <v>5232.760898282695</v>
+        <v>5332.760898282695</v>
       </c>
       <c r="G111">
         <v>2904.22</v>
@@ -2965,10 +2965,10 @@
         <v>4.39894319682959</v>
       </c>
       <c r="E112">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F112">
-        <v>5245.785997357993</v>
+        <v>5345.785997357993</v>
       </c>
       <c r="G112">
         <v>2930.622</v>
@@ -2988,10 +2988,10 @@
         <v>4.438573315719947</v>
       </c>
       <c r="E113">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F113">
-        <v>5258.811096433289</v>
+        <v>5358.811096433289</v>
       </c>
       <c r="G113">
         <v>2957.024</v>
@@ -3011,10 +3011,10 @@
         <v>4.478203434610304</v>
       </c>
       <c r="E114">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F114">
-        <v>5271.836195508587</v>
+        <v>5371.836195508587</v>
       </c>
       <c r="G114">
         <v>2983.426</v>
@@ -3034,10 +3034,10 @@
         <v>4.51783355350066</v>
       </c>
       <c r="E115">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F115">
-        <v>5284.861294583883</v>
+        <v>5384.861294583883</v>
       </c>
       <c r="G115">
         <v>3009.828</v>
@@ -3057,10 +3057,10 @@
         <v>4.557463672391017</v>
       </c>
       <c r="E116">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F116">
-        <v>5297.886393659181</v>
+        <v>5397.886393659181</v>
       </c>
       <c r="G116">
         <v>3036.23</v>
@@ -3080,10 +3080,10 @@
         <v>4.597093791281374</v>
       </c>
       <c r="E117">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F117">
-        <v>5310.911492734478</v>
+        <v>5410.911492734478</v>
       </c>
       <c r="G117">
         <v>3062.632</v>
@@ -3103,10 +3103,10 @@
         <v>4.63672391017173</v>
       </c>
       <c r="E118">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F118">
-        <v>5323.936591809776</v>
+        <v>5423.936591809776</v>
       </c>
       <c r="G118">
         <v>3089.034</v>
@@ -3126,10 +3126,10 @@
         <v>4.676354029062087</v>
       </c>
       <c r="E119">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F119">
-        <v>5336.961690885073</v>
+        <v>5436.961690885073</v>
       </c>
       <c r="G119">
         <v>3115.436</v>
@@ -3149,10 +3149,10 @@
         <v>4.715984147952444</v>
       </c>
       <c r="E120">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F120">
-        <v>5349.98678996037</v>
+        <v>5449.98678996037</v>
       </c>
       <c r="G120">
         <v>3141.838</v>
@@ -3172,10 +3172,10 @@
         <v>4.7556142668428</v>
       </c>
       <c r="E121">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F121">
-        <v>5363.011889035667</v>
+        <v>5463.011889035667</v>
       </c>
       <c r="G121">
         <v>3168.24</v>
@@ -3195,10 +3195,10 @@
         <v>4.795244385733157</v>
       </c>
       <c r="E122">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F122">
-        <v>5376.036988110965</v>
+        <v>5476.036988110965</v>
       </c>
       <c r="G122">
         <v>3194.642</v>
@@ -3218,10 +3218,10 @@
         <v>4.834874504623514</v>
       </c>
       <c r="E123">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F123">
-        <v>5389.062087186261</v>
+        <v>5489.062087186261</v>
       </c>
       <c r="G123">
         <v>3221.044</v>
@@ -3241,10 +3241,10 @@
         <v>4.874504623513871</v>
       </c>
       <c r="E124">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F124">
-        <v>5402.087186261559</v>
+        <v>5502.087186261559</v>
       </c>
       <c r="G124">
         <v>3247.446</v>
@@ -3264,10 +3264,10 @@
         <v>4.914134742404227</v>
       </c>
       <c r="E125">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F125">
-        <v>5415.112285336856</v>
+        <v>5515.112285336856</v>
       </c>
       <c r="G125">
         <v>3273.848</v>
@@ -3287,10 +3287,10 @@
         <v>4.953764861294584</v>
       </c>
       <c r="E126">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F126">
-        <v>5428.137384412154</v>
+        <v>5528.137384412154</v>
       </c>
       <c r="G126">
         <v>3300.25</v>
@@ -3310,10 +3310,10 @@
         <v>4.993394980184941</v>
       </c>
       <c r="E127">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F127">
-        <v>5441.16248348745</v>
+        <v>5541.16248348745</v>
       </c>
       <c r="G127">
         <v>3326.652</v>
@@ -3333,10 +3333,10 @@
         <v>5.033025099075297</v>
       </c>
       <c r="E128">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F128">
-        <v>5454.187582562748</v>
+        <v>5554.187582562748</v>
       </c>
       <c r="G128">
         <v>3353.054</v>
@@ -3356,10 +3356,10 @@
         <v>5.072655217965654</v>
       </c>
       <c r="E129">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F129">
-        <v>5467.212681638045</v>
+        <v>5567.212681638045</v>
       </c>
       <c r="G129">
         <v>3379.456</v>
@@ -3379,10 +3379,10 @@
         <v>5.112285336856011</v>
       </c>
       <c r="E130">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F130">
-        <v>5480.237780713342</v>
+        <v>5580.237780713342</v>
       </c>
       <c r="G130">
         <v>3405.858</v>
@@ -3402,10 +3402,10 @@
         <v>5.151915455746367</v>
       </c>
       <c r="E131">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F131">
-        <v>5493.262879788639</v>
+        <v>5593.262879788639</v>
       </c>
       <c r="G131">
         <v>3432.26</v>
@@ -3425,10 +3425,10 @@
         <v>5.191545574636724</v>
       </c>
       <c r="E132">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F132">
-        <v>5506.287978863937</v>
+        <v>5606.287978863937</v>
       </c>
       <c r="G132">
         <v>3458.662</v>
@@ -3448,10 +3448,10 @@
         <v>5.231175693527081</v>
       </c>
       <c r="E133">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F133">
-        <v>5519.313077939234</v>
+        <v>5619.313077939234</v>
       </c>
       <c r="G133">
         <v>3485.064</v>
@@ -3471,10 +3471,10 @@
         <v>5.270805812417437</v>
       </c>
       <c r="E134">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F134">
-        <v>5532.338177014531</v>
+        <v>5632.338177014531</v>
       </c>
       <c r="G134">
         <v>3511.466</v>
@@ -3494,10 +3494,10 @@
         <v>5.310435931307794</v>
       </c>
       <c r="E135">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F135">
-        <v>5545.363276089828</v>
+        <v>5645.363276089828</v>
       </c>
       <c r="G135">
         <v>3537.868</v>
@@ -3517,10 +3517,10 @@
         <v>5.350066050198151</v>
       </c>
       <c r="E136">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F136">
-        <v>5558.388375165126</v>
+        <v>5658.388375165126</v>
       </c>
       <c r="G136">
         <v>3564.27</v>
@@ -3540,10 +3540,10 @@
         <v>5.389696169088507</v>
       </c>
       <c r="E137">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F137">
-        <v>5571.413474240422</v>
+        <v>5671.413474240422</v>
       </c>
       <c r="G137">
         <v>3590.672</v>
@@ -3563,10 +3563,10 @@
         <v>5.429326287978864</v>
       </c>
       <c r="E138">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F138">
-        <v>5584.43857331572</v>
+        <v>5684.43857331572</v>
       </c>
       <c r="G138">
         <v>3617.074</v>
@@ -3586,10 +3586,10 @@
         <v>5.46895640686922</v>
       </c>
       <c r="E139">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F139">
-        <v>5597.463672391017</v>
+        <v>5697.463672391017</v>
       </c>
       <c r="G139">
         <v>3643.476</v>
@@ -3609,10 +3609,10 @@
         <v>5.508586525759577</v>
       </c>
       <c r="E140">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F140">
-        <v>5610.488771466315</v>
+        <v>5710.488771466315</v>
       </c>
       <c r="G140">
         <v>3669.878</v>
@@ -3632,10 +3632,10 @@
         <v>5.548216644649933</v>
       </c>
       <c r="E141">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F141">
-        <v>5623.513870541612</v>
+        <v>5723.513870541612</v>
       </c>
       <c r="G141">
         <v>3696.28</v>
@@ -3655,10 +3655,10 @@
         <v>5.58784676354029</v>
       </c>
       <c r="E142">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F142">
-        <v>5636.538969616909</v>
+        <v>5736.538969616909</v>
       </c>
       <c r="G142">
         <v>3722.682</v>
@@ -3678,10 +3678,10 @@
         <v>5.627476882430647</v>
       </c>
       <c r="E143">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F143">
-        <v>5649.564068692206</v>
+        <v>5749.564068692206</v>
       </c>
       <c r="G143">
         <v>3749.084</v>
@@ -3701,10 +3701,10 @@
         <v>5.667107001321003</v>
       </c>
       <c r="E144">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F144">
-        <v>5662.589167767504</v>
+        <v>5762.589167767504</v>
       </c>
       <c r="G144">
         <v>3775.486</v>
@@ -3724,10 +3724,10 @@
         <v>5.70673712021136</v>
       </c>
       <c r="E145">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F145">
-        <v>5675.6142668428</v>
+        <v>5775.6142668428</v>
       </c>
       <c r="G145">
         <v>3801.888</v>
@@ -3747,10 +3747,10 @@
         <v>5.746367239101717</v>
       </c>
       <c r="E146">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F146">
-        <v>5688.639365918098</v>
+        <v>5788.639365918098</v>
       </c>
       <c r="G146">
         <v>3828.29</v>
@@ -3770,10 +3770,10 @@
         <v>5.785997357992073</v>
       </c>
       <c r="E147">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F147">
-        <v>5701.664464993395</v>
+        <v>5801.664464993395</v>
       </c>
       <c r="G147">
         <v>3854.692</v>
@@ -3793,10 +3793,10 @@
         <v>5.82562747688243</v>
       </c>
       <c r="E148">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F148">
-        <v>5714.689564068693</v>
+        <v>5814.689564068693</v>
       </c>
       <c r="G148">
         <v>3881.094</v>
@@ -3816,10 +3816,10 @@
         <v>5.865257595772787</v>
       </c>
       <c r="E149">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F149">
-        <v>5727.714663143989</v>
+        <v>5827.714663143989</v>
       </c>
       <c r="G149">
         <v>3907.496</v>
@@ -3839,10 +3839,10 @@
         <v>5.904887714663143</v>
       </c>
       <c r="E150">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F150">
-        <v>5740.739762219287</v>
+        <v>5840.739762219287</v>
       </c>
       <c r="G150">
         <v>3933.898</v>
@@ -3862,10 +3862,10 @@
         <v>5.9445178335535</v>
       </c>
       <c r="E151">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F151">
-        <v>5753.764861294584</v>
+        <v>5853.764861294584</v>
       </c>
       <c r="G151">
         <v>3960.3</v>
@@ -3885,10 +3885,10 @@
         <v>5.984147952443857</v>
       </c>
       <c r="E152">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F152">
-        <v>5766.789960369881</v>
+        <v>5866.789960369881</v>
       </c>
       <c r="G152">
         <v>3986.702</v>
@@ -3908,10 +3908,10 @@
         <v>6.023778071334213</v>
       </c>
       <c r="E153">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F153">
-        <v>5779.815059445178</v>
+        <v>5879.815059445178</v>
       </c>
       <c r="G153">
         <v>4013.104</v>
@@ -3931,10 +3931,10 @@
         <v>6.06340819022457</v>
       </c>
       <c r="E154">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F154">
-        <v>5792.840158520476</v>
+        <v>5892.840158520476</v>
       </c>
       <c r="G154">
         <v>4039.506</v>
@@ -3954,10 +3954,10 @@
         <v>6.103038309114927</v>
       </c>
       <c r="E155">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F155">
-        <v>5805.865257595773</v>
+        <v>5905.865257595773</v>
       </c>
       <c r="G155">
         <v>4065.908</v>
@@ -3977,10 +3977,10 @@
         <v>6.142668428005284</v>
       </c>
       <c r="E156">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F156">
-        <v>5818.89035667107</v>
+        <v>5918.89035667107</v>
       </c>
       <c r="G156">
         <v>4092.31</v>
@@ -4000,10 +4000,10 @@
         <v>6.18229854689564</v>
       </c>
       <c r="E157">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F157">
-        <v>5831.915455746367</v>
+        <v>5931.915455746367</v>
       </c>
       <c r="G157">
         <v>4118.712</v>
@@ -4023,10 +4023,10 @@
         <v>6.221928665785997</v>
       </c>
       <c r="E158">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F158">
-        <v>5844.940554821665</v>
+        <v>5944.940554821665</v>
       </c>
       <c r="G158">
         <v>4145.114</v>
@@ -4046,10 +4046,10 @@
         <v>6.261558784676354</v>
       </c>
       <c r="E159">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F159">
-        <v>5857.965653896961</v>
+        <v>5957.965653896961</v>
       </c>
       <c r="G159">
         <v>4171.516000000001</v>
@@ -4069,10 +4069,10 @@
         <v>6.30118890356671</v>
       </c>
       <c r="E160">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F160">
-        <v>5870.990752972259</v>
+        <v>5970.990752972259</v>
       </c>
       <c r="G160">
         <v>4197.918000000001</v>
@@ -4092,10 +4092,10 @@
         <v>6.340819022457067</v>
       </c>
       <c r="E161">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F161">
-        <v>5884.015852047556</v>
+        <v>5984.015852047556</v>
       </c>
       <c r="G161">
         <v>4224.32</v>
@@ -4115,10 +4115,10 @@
         <v>6.380449141347424</v>
       </c>
       <c r="E162">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F162">
-        <v>5897.040951122854</v>
+        <v>5997.040951122854</v>
       </c>
       <c r="G162">
         <v>4250.722</v>
@@ -4138,10 +4138,10 @@
         <v>6.42007926023778</v>
       </c>
       <c r="E163">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F163">
-        <v>5910.066050198151</v>
+        <v>6010.066050198151</v>
       </c>
       <c r="G163">
         <v>4277.124</v>
@@ -4161,10 +4161,10 @@
         <v>6.459709379128137</v>
       </c>
       <c r="E164">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F164">
-        <v>5923.091149273448</v>
+        <v>6023.091149273448</v>
       </c>
       <c r="G164">
         <v>4303.526</v>
@@ -4184,10 +4184,10 @@
         <v>6.499339498018494</v>
       </c>
       <c r="E165">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F165">
-        <v>5936.116248348745</v>
+        <v>6036.116248348745</v>
       </c>
       <c r="G165">
         <v>4329.928</v>
@@ -4207,10 +4207,10 @@
         <v>6.53896961690885</v>
       </c>
       <c r="E166">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F166">
-        <v>5949.141347424042</v>
+        <v>6049.141347424042</v>
       </c>
       <c r="G166">
         <v>4356.33</v>
@@ -4230,10 +4230,10 @@
         <v>6.578599735799207</v>
       </c>
       <c r="E167">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F167">
-        <v>5962.166446499339</v>
+        <v>6062.166446499339</v>
       </c>
       <c r="G167">
         <v>4382.732</v>
@@ -4253,10 +4253,10 @@
         <v>6.618229854689564</v>
       </c>
       <c r="E168">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F168">
-        <v>5975.191545574637</v>
+        <v>6075.191545574637</v>
       </c>
       <c r="G168">
         <v>4409.134</v>
@@ -4276,10 +4276,10 @@
         <v>6.657859973579921</v>
       </c>
       <c r="E169">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F169">
-        <v>5988.216644649934</v>
+        <v>6088.216644649934</v>
       </c>
       <c r="G169">
         <v>4435.536</v>
@@ -4299,10 +4299,10 @@
         <v>6.697490092470277</v>
       </c>
       <c r="E170">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F170">
-        <v>6001.241743725232</v>
+        <v>6101.241743725232</v>
       </c>
       <c r="G170">
         <v>4461.938</v>
@@ -4322,10 +4322,10 @@
         <v>6.737120211360634</v>
       </c>
       <c r="E171">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F171">
-        <v>6014.266842800528</v>
+        <v>6114.266842800528</v>
       </c>
       <c r="G171">
         <v>4488.34</v>
@@ -4345,10 +4345,10 @@
         <v>6.776750330250991</v>
       </c>
       <c r="E172">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F172">
-        <v>6027.291941875826</v>
+        <v>6127.291941875826</v>
       </c>
       <c r="G172">
         <v>4514.742</v>
@@ -4368,10 +4368,10 @@
         <v>6.816380449141347</v>
       </c>
       <c r="E173">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F173">
-        <v>6040.317040951123</v>
+        <v>6140.317040951123</v>
       </c>
       <c r="G173">
         <v>4541.144</v>
@@ -4391,10 +4391,10 @@
         <v>6.856010568031704</v>
       </c>
       <c r="E174">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F174">
-        <v>6053.34214002642</v>
+        <v>6153.34214002642</v>
       </c>
       <c r="G174">
         <v>4567.546</v>
@@ -4414,10 +4414,10 @@
         <v>6.895640686922061</v>
       </c>
       <c r="E175">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F175">
-        <v>6066.367239101717</v>
+        <v>6166.367239101717</v>
       </c>
       <c r="G175">
         <v>4593.948</v>
@@ -4437,10 +4437,10 @@
         <v>6.935270805812417</v>
       </c>
       <c r="E176">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F176">
-        <v>6079.392338177015</v>
+        <v>6179.392338177015</v>
       </c>
       <c r="G176">
         <v>4620.35</v>
@@ -4460,10 +4460,10 @@
         <v>6.974900924702774</v>
       </c>
       <c r="E177">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F177">
-        <v>6092.417437252312</v>
+        <v>6192.417437252312</v>
       </c>
       <c r="G177">
         <v>4646.752</v>
@@ -4483,10 +4483,10 @@
         <v>7.014531043593131</v>
       </c>
       <c r="E178">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F178">
-        <v>6105.44253632761</v>
+        <v>6205.44253632761</v>
       </c>
       <c r="G178">
         <v>4673.154</v>
@@ -4506,10 +4506,10 @@
         <v>7.054161162483487</v>
       </c>
       <c r="E179">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F179">
-        <v>6118.467635402906</v>
+        <v>6218.467635402906</v>
       </c>
       <c r="G179">
         <v>4699.556</v>
@@ -4529,10 +4529,10 @@
         <v>7.093791281373844</v>
       </c>
       <c r="E180">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F180">
-        <v>6131.492734478203</v>
+        <v>6231.492734478203</v>
       </c>
       <c r="G180">
         <v>4725.958000000001</v>
@@ -4552,10 +4552,10 @@
         <v>7.133421400264201</v>
       </c>
       <c r="E181">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F181">
-        <v>6144.5178335535</v>
+        <v>6244.5178335535</v>
       </c>
       <c r="G181">
         <v>4752.360000000001</v>
@@ -4575,10 +4575,10 @@
         <v>7.173051519154557</v>
       </c>
       <c r="E182">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F182">
-        <v>6157.542932628798</v>
+        <v>6257.542932628798</v>
       </c>
       <c r="G182">
         <v>4778.762000000001</v>
@@ -4598,10 +4598,10 @@
         <v>7.212681638044914</v>
       </c>
       <c r="E183">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F183">
-        <v>6170.568031704095</v>
+        <v>6270.568031704095</v>
       </c>
       <c r="G183">
         <v>4805.164</v>
@@ -4621,10 +4621,10 @@
         <v>7.252311756935271</v>
       </c>
       <c r="E184">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F184">
-        <v>6183.593130779393</v>
+        <v>6283.593130779393</v>
       </c>
       <c r="G184">
         <v>4831.566</v>
@@ -4644,10 +4644,10 @@
         <v>7.291941875825627</v>
       </c>
       <c r="E185">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F185">
-        <v>6196.618229854689</v>
+        <v>6296.618229854689</v>
       </c>
       <c r="G185">
         <v>4857.968</v>
@@ -4667,10 +4667,10 @@
         <v>7.331571994715984</v>
       </c>
       <c r="E186">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F186">
-        <v>6209.643328929987</v>
+        <v>6309.643328929987</v>
       </c>
       <c r="G186">
         <v>4884.37</v>
@@ -4690,10 +4690,10 @@
         <v>7.371202113606341</v>
       </c>
       <c r="E187">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F187">
-        <v>6222.668428005284</v>
+        <v>6322.668428005284</v>
       </c>
       <c r="G187">
         <v>4910.772</v>
@@ -4713,10 +4713,10 @@
         <v>7.410832232496698</v>
       </c>
       <c r="E188">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F188">
-        <v>6235.693527080581</v>
+        <v>6335.693527080581</v>
       </c>
       <c r="G188">
         <v>4937.174</v>
@@ -4736,10 +4736,10 @@
         <v>7.450462351387054</v>
       </c>
       <c r="E189">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F189">
-        <v>6248.718626155878</v>
+        <v>6348.718626155878</v>
       </c>
       <c r="G189">
         <v>4963.576</v>
@@ -4759,10 +4759,10 @@
         <v>7.490092470277411</v>
       </c>
       <c r="E190">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F190">
-        <v>6261.743725231176</v>
+        <v>6361.743725231176</v>
       </c>
       <c r="G190">
         <v>4989.978</v>
@@ -4782,10 +4782,10 @@
         <v>7.529722589167767</v>
       </c>
       <c r="E191">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F191">
-        <v>6274.768824306473</v>
+        <v>6374.768824306473</v>
       </c>
       <c r="G191">
         <v>5016.38</v>
@@ -4805,10 +4805,10 @@
         <v>7.569352708058124</v>
       </c>
       <c r="E192">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F192">
-        <v>6287.793923381771</v>
+        <v>6387.793923381771</v>
       </c>
       <c r="G192">
         <v>5042.782</v>
@@ -4828,10 +4828,10 @@
         <v>7.60898282694848</v>
       </c>
       <c r="E193">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F193">
-        <v>6300.819022457068</v>
+        <v>6400.819022457068</v>
       </c>
       <c r="G193">
         <v>5069.184</v>
@@ -4851,10 +4851,10 @@
         <v>7.648612945838837</v>
       </c>
       <c r="E194">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F194">
-        <v>6313.844121532365</v>
+        <v>6413.844121532365</v>
       </c>
       <c r="G194">
         <v>5095.586</v>
@@ -4874,10 +4874,10 @@
         <v>7.688243064729193</v>
       </c>
       <c r="E195">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F195">
-        <v>6326.869220607662</v>
+        <v>6426.869220607662</v>
       </c>
       <c r="G195">
         <v>5121.988</v>
@@ -4897,10 +4897,10 @@
         <v>7.72787318361955</v>
       </c>
       <c r="E196">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F196">
-        <v>6339.894319682959</v>
+        <v>6439.894319682959</v>
       </c>
       <c r="G196">
         <v>5148.39</v>
@@ -4920,10 +4920,10 @@
         <v>7.767503302509907</v>
       </c>
       <c r="E197">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F197">
-        <v>6352.919418758256</v>
+        <v>6452.919418758256</v>
       </c>
       <c r="G197">
         <v>5174.792</v>
@@ -4943,10 +4943,10 @@
         <v>7.807133421400263</v>
       </c>
       <c r="E198">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F198">
-        <v>6365.944517833554</v>
+        <v>6465.944517833554</v>
       </c>
       <c r="G198">
         <v>5201.194</v>
@@ -4966,10 +4966,10 @@
         <v>7.84676354029062</v>
       </c>
       <c r="E199">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F199">
-        <v>6378.969616908851</v>
+        <v>6478.969616908851</v>
       </c>
       <c r="G199">
         <v>5227.596</v>
@@ -4989,10 +4989,10 @@
         <v>7.886393659180977</v>
       </c>
       <c r="E200">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F200">
-        <v>6391.994715984149</v>
+        <v>6491.994715984149</v>
       </c>
       <c r="G200">
         <v>5253.998000000001</v>
@@ -5012,10 +5012,10 @@
         <v>7.926023778071334</v>
       </c>
       <c r="E201">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F201">
-        <v>6405.019815059446</v>
+        <v>6505.019815059446</v>
       </c>
       <c r="G201">
         <v>5280.400000000001</v>
@@ -5035,10 +5035,10 @@
         <v>7.96565389696169</v>
       </c>
       <c r="E202">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F202">
-        <v>6418.044914134742</v>
+        <v>6518.044914134742</v>
       </c>
       <c r="G202">
         <v>5306.802000000001</v>
@@ -5058,10 +5058,10 @@
         <v>8.005284015852046</v>
       </c>
       <c r="E203">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F203">
-        <v>6431.070013210039</v>
+        <v>6531.070013210039</v>
       </c>
       <c r="G203">
         <v>5333.204000000001</v>
@@ -5081,10 +5081,10 @@
         <v>8.044914134742404</v>
       </c>
       <c r="E204">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F204">
-        <v>6444.095112285337</v>
+        <v>6544.095112285337</v>
       </c>
       <c r="G204">
         <v>5359.606</v>
@@ -5104,10 +5104,10 @@
         <v>8.08454425363276</v>
       </c>
       <c r="E205">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F205">
-        <v>6457.120211360634</v>
+        <v>6557.120211360634</v>
       </c>
       <c r="G205">
         <v>5386.008</v>
@@ -5127,10 +5127,10 @@
         <v>8.124174372523116</v>
       </c>
       <c r="E206">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F206">
-        <v>6470.145310435932</v>
+        <v>6570.145310435932</v>
       </c>
       <c r="G206">
         <v>5412.41</v>
@@ -5150,10 +5150,10 @@
         <v>8.163804491413474</v>
       </c>
       <c r="E207">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F207">
-        <v>6483.170409511228</v>
+        <v>6583.170409511228</v>
       </c>
       <c r="G207">
         <v>5438.812</v>
@@ -5173,10 +5173,10 @@
         <v>8.20343461030383</v>
       </c>
       <c r="E208">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F208">
-        <v>6496.195508586526</v>
+        <v>6596.195508586526</v>
       </c>
       <c r="G208">
         <v>5465.214</v>
@@ -5196,10 +5196,10 @@
         <v>8.243064729194188</v>
       </c>
       <c r="E209">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F209">
-        <v>6509.220607661823</v>
+        <v>6609.220607661823</v>
       </c>
       <c r="G209">
         <v>5491.616</v>
@@ -5219,10 +5219,10 @@
         <v>8.282694848084544</v>
       </c>
       <c r="E210">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F210">
-        <v>6522.24570673712</v>
+        <v>6622.24570673712</v>
       </c>
       <c r="G210">
         <v>5518.018</v>
@@ -5242,10 +5242,10 @@
         <v>8.3223249669749</v>
       </c>
       <c r="E211">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F211">
-        <v>6535.270805812417</v>
+        <v>6635.270805812417</v>
       </c>
       <c r="G211">
         <v>5544.42</v>
@@ -5265,10 +5265,10 @@
         <v>8.361955085865258</v>
       </c>
       <c r="E212">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F212">
-        <v>6548.295904887715</v>
+        <v>6648.295904887715</v>
       </c>
       <c r="G212">
         <v>5570.822</v>
@@ -5288,10 +5288,10 @@
         <v>8.401585204755614</v>
       </c>
       <c r="E213">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F213">
-        <v>6561.321003963012</v>
+        <v>6661.321003963012</v>
       </c>
       <c r="G213">
         <v>5597.224</v>
@@ -5311,10 +5311,10 @@
         <v>8.44121532364597</v>
       </c>
       <c r="E214">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F214">
-        <v>6574.34610303831</v>
+        <v>6674.34610303831</v>
       </c>
       <c r="G214">
         <v>5623.626</v>
@@ -5334,10 +5334,10 @@
         <v>8.480845442536328</v>
       </c>
       <c r="E215">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F215">
-        <v>6587.371202113606</v>
+        <v>6687.371202113606</v>
       </c>
       <c r="G215">
         <v>5650.028</v>
@@ -5357,10 +5357,10 @@
         <v>8.520475561426684</v>
       </c>
       <c r="E216">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F216">
-        <v>6600.396301188904</v>
+        <v>6700.396301188904</v>
       </c>
       <c r="G216">
         <v>5676.43</v>
@@ -5380,10 +5380,10 @@
         <v>8.56010568031704</v>
       </c>
       <c r="E217">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F217">
-        <v>6613.4214002642</v>
+        <v>6713.4214002642</v>
       </c>
       <c r="G217">
         <v>5702.832</v>
@@ -5403,10 +5403,10 @@
         <v>8.599735799207398</v>
       </c>
       <c r="E218">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F218">
-        <v>6626.446499339498</v>
+        <v>6726.446499339498</v>
       </c>
       <c r="G218">
         <v>5729.234</v>
@@ -5426,10 +5426,10 @@
         <v>8.639365918097754</v>
       </c>
       <c r="E219">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F219">
-        <v>6639.471598414795</v>
+        <v>6739.471598414795</v>
       </c>
       <c r="G219">
         <v>5755.636</v>
@@ -5449,10 +5449,10 @@
         <v>8.67899603698811</v>
       </c>
       <c r="E220">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F220">
-        <v>6652.496697490092</v>
+        <v>6752.496697490092</v>
       </c>
       <c r="G220">
         <v>5782.038</v>
@@ -5472,10 +5472,10 @@
         <v>8.718626155878468</v>
       </c>
       <c r="E221">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F221">
-        <v>6665.52179656539</v>
+        <v>6765.52179656539</v>
       </c>
       <c r="G221">
         <v>5808.440000000001</v>
@@ -5495,10 +5495,10 @@
         <v>8.758256274768824</v>
       </c>
       <c r="E222">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F222">
-        <v>6678.546895640688</v>
+        <v>6778.546895640688</v>
       </c>
       <c r="G222">
         <v>5834.842000000001</v>
@@ -5518,10 +5518,10 @@
         <v>8.79788639365918</v>
       </c>
       <c r="E223">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F223">
-        <v>6691.571994715984</v>
+        <v>6791.571994715984</v>
       </c>
       <c r="G223">
         <v>5861.244000000001</v>
@@ -5541,10 +5541,10 @@
         <v>8.837516512549538</v>
       </c>
       <c r="E224">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F224">
-        <v>6704.597093791281</v>
+        <v>6804.597093791281</v>
       </c>
       <c r="G224">
         <v>5887.646000000001</v>
@@ -5564,10 +5564,10 @@
         <v>8.877146631439894</v>
       </c>
       <c r="E225">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F225">
-        <v>6717.622192866578</v>
+        <v>6817.622192866578</v>
       </c>
       <c r="G225">
         <v>5914.048000000001</v>
@@ -5587,10 +5587,10 @@
         <v>8.91677675033025</v>
       </c>
       <c r="E226">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F226">
-        <v>6730.647291941876</v>
+        <v>6830.647291941876</v>
       </c>
       <c r="G226">
         <v>5940.45</v>
@@ -5610,10 +5610,10 @@
         <v>8.956406869220608</v>
       </c>
       <c r="E227">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F227">
-        <v>6743.672391017173</v>
+        <v>6843.672391017173</v>
       </c>
       <c r="G227">
         <v>5966.852</v>
@@ -5633,10 +5633,10 @@
         <v>8.996036988110964</v>
       </c>
       <c r="E228">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F228">
-        <v>6756.697490092471</v>
+        <v>6856.697490092471</v>
       </c>
       <c r="G228">
         <v>5993.254</v>
@@ -5656,10 +5656,10 @@
         <v>9.03566710700132</v>
       </c>
       <c r="E229">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F229">
-        <v>6769.722589167767</v>
+        <v>6869.722589167767</v>
       </c>
       <c r="G229">
         <v>6019.656</v>
@@ -5679,10 +5679,10 @@
         <v>9.075297225891678</v>
       </c>
       <c r="E230">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F230">
-        <v>6782.747688243065</v>
+        <v>6882.747688243065</v>
       </c>
       <c r="G230">
         <v>6046.058</v>
@@ -5702,10 +5702,10 @@
         <v>9.114927344782034</v>
       </c>
       <c r="E231">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F231">
-        <v>6795.772787318361</v>
+        <v>6895.772787318361</v>
       </c>
       <c r="G231">
         <v>6072.46</v>
@@ -5725,10 +5725,10 @@
         <v>9.15455746367239</v>
       </c>
       <c r="E232">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F232">
-        <v>6808.797886393659</v>
+        <v>6908.797886393659</v>
       </c>
       <c r="G232">
         <v>6098.862</v>
@@ -5748,10 +5748,10 @@
         <v>9.194187582562748</v>
       </c>
       <c r="E233">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F233">
-        <v>6821.822985468956</v>
+        <v>6921.822985468956</v>
       </c>
       <c r="G233">
         <v>6125.264</v>
@@ -5771,10 +5771,10 @@
         <v>9.233817701453104</v>
       </c>
       <c r="E234">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F234">
-        <v>6834.848084544254</v>
+        <v>6934.848084544254</v>
       </c>
       <c r="G234">
         <v>6151.666</v>
@@ -5794,10 +5794,10 @@
         <v>9.27344782034346</v>
       </c>
       <c r="E235">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F235">
-        <v>6847.873183619551</v>
+        <v>6947.873183619551</v>
       </c>
       <c r="G235">
         <v>6178.068</v>
@@ -5817,10 +5817,10 @@
         <v>9.313077939233818</v>
       </c>
       <c r="E236">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F236">
-        <v>6860.898282694849</v>
+        <v>6960.898282694849</v>
       </c>
       <c r="G236">
         <v>6204.47</v>
@@ -5840,10 +5840,10 @@
         <v>9.352708058124174</v>
       </c>
       <c r="E237">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F237">
-        <v>6873.923381770146</v>
+        <v>6973.923381770146</v>
       </c>
       <c r="G237">
         <v>6230.872</v>
@@ -5863,10 +5863,10 @@
         <v>9.39233817701453</v>
       </c>
       <c r="E238">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F238">
-        <v>6886.948480845443</v>
+        <v>6986.948480845443</v>
       </c>
       <c r="G238">
         <v>6257.274</v>
@@ -5886,10 +5886,10 @@
         <v>9.431968295904888</v>
       </c>
       <c r="E239">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F239">
-        <v>6899.973579920739</v>
+        <v>6999.973579920739</v>
       </c>
       <c r="G239">
         <v>6283.676</v>
@@ -5909,10 +5909,10 @@
         <v>9.471598414795244</v>
       </c>
       <c r="E240">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F240">
-        <v>6912.998678996037</v>
+        <v>7012.998678996037</v>
       </c>
       <c r="G240">
         <v>6310.078</v>
@@ -5932,10 +5932,10 @@
         <v>9.5112285336856</v>
       </c>
       <c r="E241">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F241">
-        <v>6926.023778071334</v>
+        <v>7026.023778071334</v>
       </c>
       <c r="G241">
         <v>6336.48</v>
@@ -5955,10 +5955,10 @@
         <v>9.550858652575958</v>
       </c>
       <c r="E242">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F242">
-        <v>6939.048877146632</v>
+        <v>7039.048877146632</v>
       </c>
       <c r="G242">
         <v>6362.882000000001</v>
@@ -5978,10 +5978,10 @@
         <v>9.590488771466314</v>
       </c>
       <c r="E243">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F243">
-        <v>6952.073976221929</v>
+        <v>7052.073976221929</v>
       </c>
       <c r="G243">
         <v>6389.284000000001</v>
@@ -6001,10 +6001,10 @@
         <v>9.630118890356671</v>
       </c>
       <c r="E244">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F244">
-        <v>6965.099075297227</v>
+        <v>7065.099075297227</v>
       </c>
       <c r="G244">
         <v>6415.686000000001</v>
@@ -6024,10 +6024,10 @@
         <v>9.669749009247028</v>
       </c>
       <c r="E245">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F245">
-        <v>6978.124174372522</v>
+        <v>7078.124174372522</v>
       </c>
       <c r="G245">
         <v>6442.088000000001</v>
@@ -6047,10 +6047,10 @@
         <v>9.709379128137384</v>
       </c>
       <c r="E246">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F246">
-        <v>6991.14927344782</v>
+        <v>7091.14927344782</v>
       </c>
       <c r="G246">
         <v>6468.490000000001</v>
@@ -6070,10 +6070,10 @@
         <v>9.749009247027741</v>
       </c>
       <c r="E247">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F247">
-        <v>7004.174372523117</v>
+        <v>7104.174372523117</v>
       </c>
       <c r="G247">
         <v>6494.892</v>
@@ -6093,10 +6093,10 @@
         <v>9.788639365918097</v>
       </c>
       <c r="E248">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F248">
-        <v>7017.199471598415</v>
+        <v>7117.199471598415</v>
       </c>
       <c r="G248">
         <v>6521.294</v>
@@ -6116,10 +6116,10 @@
         <v>9.828269484808454</v>
       </c>
       <c r="E249">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F249">
-        <v>7030.224570673712</v>
+        <v>7130.224570673712</v>
       </c>
       <c r="G249">
         <v>6547.696</v>
@@ -6139,10 +6139,10 @@
         <v>9.867899603698811</v>
       </c>
       <c r="E250">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F250">
-        <v>7043.24966974901</v>
+        <v>7143.24966974901</v>
       </c>
       <c r="G250">
         <v>6574.098</v>
@@ -6162,10 +6162,10 @@
         <v>9.907529722589167</v>
       </c>
       <c r="E251">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F251">
-        <v>7056.274768824306</v>
+        <v>7156.274768824306</v>
       </c>
       <c r="G251">
         <v>6600.5</v>
@@ -6185,10 +6185,10 @@
         <v>9.947159841479523</v>
       </c>
       <c r="E252">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F252">
-        <v>7069.299867899604</v>
+        <v>7169.299867899604</v>
       </c>
       <c r="G252">
         <v>6626.902</v>
@@ -6208,10 +6208,10 @@
         <v>9.986789960369881</v>
       </c>
       <c r="E253">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F253">
-        <v>7082.3249669749</v>
+        <v>7182.3249669749</v>
       </c>
       <c r="G253">
         <v>6653.304</v>
@@ -6231,10 +6231,10 @@
         <v>10.02642007926024</v>
       </c>
       <c r="E254">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F254">
-        <v>7095.350066050198</v>
+        <v>7195.350066050198</v>
       </c>
       <c r="G254">
         <v>6679.706</v>
@@ -6254,10 +6254,10 @@
         <v>10.06605019815059</v>
       </c>
       <c r="E255">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F255">
-        <v>7108.375165125495</v>
+        <v>7208.375165125495</v>
       </c>
       <c r="G255">
         <v>6706.108</v>
@@ -6277,10 +6277,10 @@
         <v>10.10568031704095</v>
       </c>
       <c r="E256">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F256">
-        <v>7121.400264200793</v>
+        <v>7221.400264200793</v>
       </c>
       <c r="G256">
         <v>6732.51</v>
@@ -6300,10 +6300,10 @@
         <v>10.14531043593131</v>
       </c>
       <c r="E257">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F257">
-        <v>7134.42536327609</v>
+        <v>7234.42536327609</v>
       </c>
       <c r="G257">
         <v>6758.912</v>
@@ -6323,10 +6323,10 @@
         <v>10.18494055482166</v>
       </c>
       <c r="E258">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F258">
-        <v>7147.450462351388</v>
+        <v>7247.450462351388</v>
       </c>
       <c r="G258">
         <v>6785.314</v>
@@ -6346,10 +6346,10 @@
         <v>10.22457067371202</v>
       </c>
       <c r="E259">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F259">
-        <v>7160.475561426684</v>
+        <v>7260.475561426684</v>
       </c>
       <c r="G259">
         <v>6811.716</v>
@@ -6369,10 +6369,10 @@
         <v>10.26420079260238</v>
       </c>
       <c r="E260">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F260">
-        <v>7173.500660501982</v>
+        <v>7273.500660501982</v>
       </c>
       <c r="G260">
         <v>6838.118</v>
@@ -6392,10 +6392,10 @@
         <v>10.30383091149273</v>
       </c>
       <c r="E261">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F261">
-        <v>7186.525759577278</v>
+        <v>7286.525759577278</v>
       </c>
       <c r="G261">
         <v>6864.52</v>
@@ -6415,10 +6415,10 @@
         <v>10.34346103038309</v>
       </c>
       <c r="E262">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F262">
-        <v>7199.550858652576</v>
+        <v>7299.550858652576</v>
       </c>
       <c r="G262">
         <v>6890.922</v>
@@ -6438,10 +6438,10 @@
         <v>10.38309114927345</v>
       </c>
       <c r="E263">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F263">
-        <v>7212.575957727873</v>
+        <v>7312.575957727873</v>
       </c>
       <c r="G263">
         <v>6917.324000000001</v>
@@ -6461,10 +6461,10 @@
         <v>10.4227212681638</v>
       </c>
       <c r="E264">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F264">
-        <v>7225.601056803171</v>
+        <v>7325.601056803171</v>
       </c>
       <c r="G264">
         <v>6943.726000000001</v>
@@ -6484,10 +6484,10 @@
         <v>10.46235138705416</v>
       </c>
       <c r="E265">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F265">
-        <v>7238.626155878468</v>
+        <v>7338.626155878468</v>
       </c>
       <c r="G265">
         <v>6970.128000000001</v>
@@ -6507,10 +6507,10 @@
         <v>10.50198150594452</v>
       </c>
       <c r="E266">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F266">
-        <v>7251.651254953765</v>
+        <v>7351.651254953765</v>
       </c>
       <c r="G266">
         <v>6996.530000000001</v>
@@ -6530,10 +6530,10 @@
         <v>10.54161162483487</v>
       </c>
       <c r="E267">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F267">
-        <v>7264.676354029061</v>
+        <v>7364.676354029061</v>
       </c>
       <c r="G267">
         <v>7022.932000000001</v>
@@ -6553,10 +6553,10 @@
         <v>10.58124174372523</v>
       </c>
       <c r="E268">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F268">
-        <v>7277.701453104359</v>
+        <v>7377.701453104359</v>
       </c>
       <c r="G268">
         <v>7049.334</v>
@@ -6576,10 +6576,10 @@
         <v>10.62087186261559</v>
       </c>
       <c r="E269">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F269">
-        <v>7290.726552179656</v>
+        <v>7390.726552179656</v>
       </c>
       <c r="G269">
         <v>7075.736</v>
@@ -6599,10 +6599,10 @@
         <v>10.66050198150594</v>
       </c>
       <c r="E270">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F270">
-        <v>7303.751651254954</v>
+        <v>7403.751651254954</v>
       </c>
       <c r="G270">
         <v>7102.138</v>
@@ -6622,10 +6622,10 @@
         <v>10.7001321003963</v>
       </c>
       <c r="E271">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F271">
-        <v>7316.776750330251</v>
+        <v>7416.776750330251</v>
       </c>
       <c r="G271">
         <v>7128.54</v>
@@ -6645,10 +6645,10 @@
         <v>10.73976221928666</v>
       </c>
       <c r="E272">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F272">
-        <v>7329.801849405549</v>
+        <v>7429.801849405549</v>
       </c>
       <c r="G272">
         <v>7154.942</v>
@@ -6668,10 +6668,10 @@
         <v>10.77939233817701</v>
       </c>
       <c r="E273">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F273">
-        <v>7342.826948480845</v>
+        <v>7442.826948480845</v>
       </c>
       <c r="G273">
         <v>7181.344</v>
@@ -6691,10 +6691,10 @@
         <v>10.81902245706737</v>
       </c>
       <c r="E274">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F274">
-        <v>7355.852047556143</v>
+        <v>7455.852047556143</v>
       </c>
       <c r="G274">
         <v>7207.746</v>
@@ -6714,10 +6714,10 @@
         <v>10.85865257595773</v>
       </c>
       <c r="E275">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F275">
-        <v>7368.87714663144</v>
+        <v>7468.87714663144</v>
       </c>
       <c r="G275">
         <v>7234.148</v>
@@ -6737,10 +6737,10 @@
         <v>10.89828269484808</v>
       </c>
       <c r="E276">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F276">
-        <v>7381.902245706737</v>
+        <v>7481.902245706737</v>
       </c>
       <c r="G276">
         <v>7260.55</v>
@@ -6760,10 +6760,10 @@
         <v>10.93791281373844</v>
       </c>
       <c r="E277">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F277">
-        <v>7394.927344782034</v>
+        <v>7494.927344782034</v>
       </c>
       <c r="G277">
         <v>7286.952</v>
@@ -6783,10 +6783,10 @@
         <v>10.9775429326288</v>
       </c>
       <c r="E278">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F278">
-        <v>7407.952443857332</v>
+        <v>7507.952443857332</v>
       </c>
       <c r="G278">
         <v>7313.354</v>
@@ -6806,10 +6806,10 @@
         <v>11.01717305151915</v>
       </c>
       <c r="E279">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F279">
-        <v>7420.977542932629</v>
+        <v>7520.977542932629</v>
       </c>
       <c r="G279">
         <v>7339.756</v>
@@ -6829,10 +6829,10 @@
         <v>11.05680317040951</v>
       </c>
       <c r="E280">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F280">
-        <v>7434.002642007927</v>
+        <v>7534.002642007927</v>
       </c>
       <c r="G280">
         <v>7366.158</v>
@@ -6852,10 +6852,10 @@
         <v>11.09643328929987</v>
       </c>
       <c r="E281">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F281">
-        <v>7447.027741083223</v>
+        <v>7547.027741083223</v>
       </c>
       <c r="G281">
         <v>7392.56</v>
@@ -6875,10 +6875,10 @@
         <v>11.13606340819022</v>
       </c>
       <c r="E282">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F282">
-        <v>7460.052840158521</v>
+        <v>7560.052840158521</v>
       </c>
       <c r="G282">
         <v>7418.962</v>
@@ -6898,10 +6898,10 @@
         <v>11.17569352708058</v>
       </c>
       <c r="E283">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F283">
-        <v>7473.077939233817</v>
+        <v>7573.077939233817</v>
       </c>
       <c r="G283">
         <v>7445.364</v>
@@ -6921,10 +6921,10 @@
         <v>11.21532364597094</v>
       </c>
       <c r="E284">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F284">
-        <v>7486.103038309115</v>
+        <v>7586.103038309115</v>
       </c>
       <c r="G284">
         <v>7471.766000000001</v>
@@ -6944,10 +6944,10 @@
         <v>11.25495376486129</v>
       </c>
       <c r="E285">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F285">
-        <v>7499.128137384412</v>
+        <v>7599.128137384412</v>
       </c>
       <c r="G285">
         <v>7498.168000000001</v>
@@ -6967,10 +6967,10 @@
         <v>11.29458388375165</v>
       </c>
       <c r="E286">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F286">
-        <v>7512.15323645971</v>
+        <v>7612.15323645971</v>
       </c>
       <c r="G286">
         <v>7524.570000000001</v>
@@ -6990,10 +6990,10 @@
         <v>11.33421400264201</v>
       </c>
       <c r="E287">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F287">
-        <v>7525.178335535007</v>
+        <v>7625.178335535007</v>
       </c>
       <c r="G287">
         <v>7550.972000000001</v>
@@ -7013,10 +7013,10 @@
         <v>11.37384412153236</v>
       </c>
       <c r="E288">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F288">
-        <v>7538.203434610304</v>
+        <v>7638.203434610304</v>
       </c>
       <c r="G288">
         <v>7577.374000000001</v>
@@ -7036,10 +7036,10 @@
         <v>11.41347424042272</v>
       </c>
       <c r="E289">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F289">
-        <v>7551.2285336856</v>
+        <v>7651.2285336856</v>
       </c>
       <c r="G289">
         <v>7603.776</v>
@@ -7059,10 +7059,10 @@
         <v>11.45310435931308</v>
       </c>
       <c r="E290">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F290">
-        <v>7564.253632760898</v>
+        <v>7664.253632760898</v>
       </c>
       <c r="G290">
         <v>7630.178</v>
@@ -7082,10 +7082,10 @@
         <v>11.49273447820343</v>
       </c>
       <c r="E291">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F291">
-        <v>7577.278731836195</v>
+        <v>7677.278731836195</v>
       </c>
       <c r="G291">
         <v>7656.58</v>
@@ -7105,10 +7105,10 @@
         <v>11.53236459709379</v>
       </c>
       <c r="E292">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F292">
-        <v>7590.303830911493</v>
+        <v>7690.303830911493</v>
       </c>
       <c r="G292">
         <v>7682.982</v>
@@ -7128,10 +7128,10 @@
         <v>11.57199471598415</v>
       </c>
       <c r="E293">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F293">
-        <v>7603.32892998679</v>
+        <v>7703.32892998679</v>
       </c>
       <c r="G293">
         <v>7709.384</v>
@@ -7151,10 +7151,10 @@
         <v>11.6116248348745</v>
       </c>
       <c r="E294">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F294">
-        <v>7616.354029062088</v>
+        <v>7716.354029062088</v>
       </c>
       <c r="G294">
         <v>7735.786</v>
@@ -7174,10 +7174,10 @@
         <v>11.65125495376486</v>
       </c>
       <c r="E295">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F295">
-        <v>7629.379128137384</v>
+        <v>7729.379128137384</v>
       </c>
       <c r="G295">
         <v>7762.188</v>
@@ -7197,10 +7197,10 @@
         <v>11.69088507265522</v>
       </c>
       <c r="E296">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F296">
-        <v>7642.404227212682</v>
+        <v>7742.404227212682</v>
       </c>
       <c r="G296">
         <v>7788.59</v>
@@ -7220,10 +7220,10 @@
         <v>11.73051519154557</v>
       </c>
       <c r="E297">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F297">
-        <v>7655.429326287978</v>
+        <v>7755.429326287978</v>
       </c>
       <c r="G297">
         <v>7814.992</v>
@@ -7243,10 +7243,10 @@
         <v>11.77014531043593</v>
       </c>
       <c r="E298">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F298">
-        <v>7668.454425363276</v>
+        <v>7768.454425363276</v>
       </c>
       <c r="G298">
         <v>7841.394</v>
@@ -7266,10 +7266,10 @@
         <v>11.80977542932629</v>
       </c>
       <c r="E299">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F299">
-        <v>7681.479524438573</v>
+        <v>7781.479524438573</v>
       </c>
       <c r="G299">
         <v>7867.796</v>
@@ -7289,10 +7289,10 @@
         <v>11.84940554821664</v>
       </c>
       <c r="E300">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F300">
-        <v>7694.504623513871</v>
+        <v>7794.504623513871</v>
       </c>
       <c r="G300">
         <v>7894.198</v>
@@ -7312,10 +7312,10 @@
         <v>11.889035667107</v>
       </c>
       <c r="E301">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F301">
-        <v>7707.529722589168</v>
+        <v>7807.529722589168</v>
       </c>
       <c r="G301">
         <v>7920.6</v>
@@ -7335,10 +7335,10 @@
         <v>11.92866578599736</v>
       </c>
       <c r="E302">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F302">
-        <v>7720.554821664465</v>
+        <v>7820.554821664465</v>
       </c>
       <c r="G302">
         <v>7947.002</v>
@@ -7358,10 +7358,10 @@
         <v>11.96829590488771</v>
       </c>
       <c r="E303">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F303">
-        <v>7733.579920739762</v>
+        <v>7833.579920739762</v>
       </c>
       <c r="G303">
         <v>7973.404</v>
@@ -7381,10 +7381,10 @@
         <v>12.00792602377807</v>
       </c>
       <c r="E304">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F304">
-        <v>7746.60501981506</v>
+        <v>7846.60501981506</v>
       </c>
       <c r="G304">
         <v>7999.806</v>
@@ -7404,10 +7404,10 @@
         <v>12.04755614266843</v>
       </c>
       <c r="E305">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F305">
-        <v>7759.630118890356</v>
+        <v>7859.630118890356</v>
       </c>
       <c r="G305">
         <v>8026.208000000001</v>
@@ -7427,10 +7427,10 @@
         <v>12.08718626155878</v>
       </c>
       <c r="E306">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F306">
-        <v>7772.655217965654</v>
+        <v>7872.655217965654</v>
       </c>
       <c r="G306">
         <v>8052.610000000001</v>
@@ -7450,10 +7450,10 @@
         <v>12.12681638044914</v>
       </c>
       <c r="E307">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F307">
-        <v>7785.680317040951</v>
+        <v>7885.680317040951</v>
       </c>
       <c r="G307">
         <v>8079.012000000001</v>
@@ -7473,10 +7473,10 @@
         <v>12.1664464993395</v>
       </c>
       <c r="E308">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F308">
-        <v>7798.705416116249</v>
+        <v>7898.705416116249</v>
       </c>
       <c r="G308">
         <v>8105.414000000001</v>
@@ -7496,10 +7496,10 @@
         <v>12.20607661822985</v>
       </c>
       <c r="E309">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F309">
-        <v>7811.730515191546</v>
+        <v>7911.730515191546</v>
       </c>
       <c r="G309">
         <v>8131.816000000001</v>
@@ -7519,10 +7519,10 @@
         <v>12.24570673712021</v>
       </c>
       <c r="E310">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F310">
-        <v>7824.755614266844</v>
+        <v>7924.755614266844</v>
       </c>
       <c r="G310">
         <v>8158.218000000001</v>
@@ -7542,10 +7542,10 @@
         <v>12.28533685601057</v>
       </c>
       <c r="E311">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F311">
-        <v>7837.780713342139</v>
+        <v>7937.780713342139</v>
       </c>
       <c r="G311">
         <v>8184.62</v>
@@ -7565,10 +7565,10 @@
         <v>12.32496697490092</v>
       </c>
       <c r="E312">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F312">
-        <v>7850.805812417438</v>
+        <v>7950.805812417438</v>
       </c>
       <c r="G312">
         <v>8211.022000000001</v>
@@ -7588,10 +7588,10 @@
         <v>12.36459709379128</v>
       </c>
       <c r="E313">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F313">
-        <v>7863.830911492734</v>
+        <v>7963.830911492734</v>
       </c>
       <c r="G313">
         <v>8237.424000000001</v>
@@ -7611,10 +7611,10 @@
         <v>12.40422721268164</v>
       </c>
       <c r="E314">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F314">
-        <v>7876.856010568032</v>
+        <v>7976.856010568032</v>
       </c>
       <c r="G314">
         <v>8263.826000000001</v>
@@ -7634,10 +7634,10 @@
         <v>12.44385733157199</v>
       </c>
       <c r="E315">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F315">
-        <v>7889.881109643329</v>
+        <v>7989.881109643329</v>
       </c>
       <c r="G315">
         <v>8290.228000000001</v>
@@ -7657,10 +7657,10 @@
         <v>12.48348745046235</v>
       </c>
       <c r="E316">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F316">
-        <v>7902.906208718627</v>
+        <v>8002.906208718627</v>
       </c>
       <c r="G316">
         <v>8316.630000000001</v>
@@ -7680,10 +7680,10 @@
         <v>12.52311756935271</v>
       </c>
       <c r="E317">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F317">
-        <v>7915.931307793923</v>
+        <v>8015.931307793923</v>
       </c>
       <c r="G317">
         <v>8343.032000000001</v>
@@ -7703,10 +7703,10 @@
         <v>12.56274768824306</v>
       </c>
       <c r="E318">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F318">
-        <v>7928.95640686922</v>
+        <v>8028.95640686922</v>
       </c>
       <c r="G318">
         <v>8369.434000000001</v>
@@ -7726,10 +7726,10 @@
         <v>12.60237780713342</v>
       </c>
       <c r="E319">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F319">
-        <v>7941.981505944517</v>
+        <v>8041.981505944517</v>
       </c>
       <c r="G319">
         <v>8395.836000000001</v>
@@ -7749,10 +7749,10 @@
         <v>12.64200792602378</v>
       </c>
       <c r="E320">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F320">
-        <v>7955.006605019814</v>
+        <v>8055.006605019814</v>
       </c>
       <c r="G320">
         <v>8422.238000000001</v>
@@ -7772,10 +7772,10 @@
         <v>12.68163804491413</v>
       </c>
       <c r="E321">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F321">
-        <v>7968.031704095112</v>
+        <v>8068.031704095112</v>
       </c>
       <c r="G321">
         <v>8448.639999999999</v>
@@ -7795,10 +7795,10 @@
         <v>12.72126816380449</v>
       </c>
       <c r="E322">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F322">
-        <v>7981.05680317041</v>
+        <v>8081.05680317041</v>
       </c>
       <c r="G322">
         <v>8475.041999999999</v>
@@ -7818,10 +7818,10 @@
         <v>12.76089828269485</v>
       </c>
       <c r="E323">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F323">
-        <v>7994.081902245707</v>
+        <v>8094.081902245707</v>
       </c>
       <c r="G323">
         <v>8501.444</v>
@@ -7841,10 +7841,10 @@
         <v>12.8005284015852</v>
       </c>
       <c r="E324">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F324">
-        <v>8007.107001321004</v>
+        <v>8107.107001321004</v>
       </c>
       <c r="G324">
         <v>8527.846</v>
@@ -7864,10 +7864,10 @@
         <v>12.84015852047556</v>
       </c>
       <c r="E325">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F325">
-        <v>8020.132100396301</v>
+        <v>8120.132100396301</v>
       </c>
       <c r="G325">
         <v>8554.248</v>
@@ -7887,10 +7887,10 @@
         <v>12.87978863936592</v>
       </c>
       <c r="E326">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F326">
-        <v>8033.157199471599</v>
+        <v>8133.157199471599</v>
       </c>
       <c r="G326">
         <v>8580.65</v>
@@ -7910,10 +7910,10 @@
         <v>12.91941875825627</v>
       </c>
       <c r="E327">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F327">
-        <v>8046.182298546895</v>
+        <v>8146.182298546895</v>
       </c>
       <c r="G327">
         <v>8607.052</v>
@@ -7933,10 +7933,10 @@
         <v>12.95904887714663</v>
       </c>
       <c r="E328">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F328">
-        <v>8059.207397622193</v>
+        <v>8159.207397622193</v>
       </c>
       <c r="G328">
         <v>8633.454</v>
@@ -7956,10 +7956,10 @@
         <v>12.99867899603699</v>
       </c>
       <c r="E329">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F329">
-        <v>8072.23249669749</v>
+        <v>8172.23249669749</v>
       </c>
       <c r="G329">
         <v>8659.856</v>
@@ -7979,10 +7979,10 @@
         <v>13.03830911492734</v>
       </c>
       <c r="E330">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F330">
-        <v>8085.257595772787</v>
+        <v>8185.257595772787</v>
       </c>
       <c r="G330">
         <v>8686.258</v>
@@ -8002,10 +8002,10 @@
         <v>13.0779392338177</v>
       </c>
       <c r="E331">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F331">
-        <v>8098.282694848084</v>
+        <v>8198.282694848083</v>
       </c>
       <c r="G331">
         <v>8712.66</v>
@@ -8025,10 +8025,10 @@
         <v>13.11756935270806</v>
       </c>
       <c r="E332">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F332">
-        <v>8111.307793923382</v>
+        <v>8211.307793923381</v>
       </c>
       <c r="G332">
         <v>8739.062</v>
@@ -8048,10 +8048,10 @@
         <v>13.15719947159841</v>
       </c>
       <c r="E333">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F333">
-        <v>8124.332892998679</v>
+        <v>8224.332892998678</v>
       </c>
       <c r="G333">
         <v>8765.464</v>
@@ -8071,10 +8071,10 @@
         <v>13.19682959048877</v>
       </c>
       <c r="E334">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F334">
-        <v>8137.357992073977</v>
+        <v>8237.357992073976</v>
       </c>
       <c r="G334">
         <v>8791.866</v>
@@ -8094,10 +8094,10 @@
         <v>13.23645970937913</v>
       </c>
       <c r="E335">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F335">
-        <v>8150.383091149273</v>
+        <v>8250.383091149273</v>
       </c>
       <c r="G335">
         <v>8818.268</v>
@@ -8117,10 +8117,10 @@
         <v>13.27608982826948</v>
       </c>
       <c r="E336">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F336">
-        <v>8163.408190224571</v>
+        <v>8263.408190224571</v>
       </c>
       <c r="G336">
         <v>8844.67</v>
@@ -8140,10 +8140,10 @@
         <v>13.31571994715984</v>
       </c>
       <c r="E337">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F337">
-        <v>8176.433289299867</v>
+        <v>8276.433289299868</v>
       </c>
       <c r="G337">
         <v>8871.072</v>
@@ -8163,10 +8163,10 @@
         <v>13.3553500660502</v>
       </c>
       <c r="E338">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F338">
-        <v>8189.458388375165</v>
+        <v>8289.458388375166</v>
       </c>
       <c r="G338">
         <v>8897.474</v>
@@ -8186,10 +8186,10 @@
         <v>13.39498018494055</v>
       </c>
       <c r="E339">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F339">
-        <v>8202.483487450463</v>
+        <v>8302.483487450463</v>
       </c>
       <c r="G339">
         <v>8923.876</v>
@@ -8209,10 +8209,10 @@
         <v>13.43461030383091</v>
       </c>
       <c r="E340">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F340">
-        <v>8215.508586525761</v>
+        <v>8315.508586525761</v>
       </c>
       <c r="G340">
         <v>8950.278</v>
@@ -8232,10 +8232,10 @@
         <v>13.47424042272127</v>
       </c>
       <c r="E341">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F341">
-        <v>8228.533685601056</v>
+        <v>8328.533685601056</v>
       </c>
       <c r="G341">
         <v>8976.68</v>
@@ -8255,10 +8255,10 @@
         <v>13.51387054161162</v>
       </c>
       <c r="E342">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F342">
-        <v>8241.558784676354</v>
+        <v>8341.558784676354</v>
       </c>
       <c r="G342">
         <v>9003.082</v>
@@ -8278,10 +8278,10 @@
         <v>13.55350066050198</v>
       </c>
       <c r="E343">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F343">
-        <v>8254.583883751651</v>
+        <v>8354.583883751651</v>
       </c>
       <c r="G343">
         <v>9029.484</v>
@@ -8301,10 +8301,10 @@
         <v>13.59313077939234</v>
       </c>
       <c r="E344">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F344">
-        <v>8267.608982826949</v>
+        <v>8367.608982826949</v>
       </c>
       <c r="G344">
         <v>9055.886</v>
@@ -8324,10 +8324,10 @@
         <v>13.63276089828269</v>
       </c>
       <c r="E345">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F345">
-        <v>8280.634081902246</v>
+        <v>8380.634081902246</v>
       </c>
       <c r="G345">
         <v>9082.288</v>
@@ -8347,10 +8347,10 @@
         <v>13.67239101717305</v>
       </c>
       <c r="E346">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F346">
-        <v>8293.659180977542</v>
+        <v>8393.659180977542</v>
       </c>
       <c r="G346">
         <v>9108.690000000001</v>
@@ -8370,10 +8370,10 @@
         <v>13.71202113606341</v>
       </c>
       <c r="E347">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F347">
-        <v>8306.684280052839</v>
+        <v>8406.684280052839</v>
       </c>
       <c r="G347">
         <v>9135.092000000001</v>
@@ -8393,10 +8393,10 @@
         <v>13.75165125495376</v>
       </c>
       <c r="E348">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F348">
-        <v>8319.709379128137</v>
+        <v>8419.709379128137</v>
       </c>
       <c r="G348">
         <v>9161.494000000001</v>
@@ -8416,10 +8416,10 @@
         <v>13.79128137384412</v>
       </c>
       <c r="E349">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F349">
-        <v>8332.734478203434</v>
+        <v>8432.734478203434</v>
       </c>
       <c r="G349">
         <v>9187.896000000001</v>
@@ -8439,10 +8439,10 @@
         <v>13.83091149273448</v>
       </c>
       <c r="E350">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F350">
-        <v>8345.759577278732</v>
+        <v>8445.759577278732</v>
       </c>
       <c r="G350">
         <v>9214.298000000001</v>
@@ -8462,10 +8462,10 @@
         <v>13.87054161162483</v>
       </c>
       <c r="E351">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F351">
-        <v>8358.784676354029</v>
+        <v>8458.784676354029</v>
       </c>
       <c r="G351">
         <v>9240.700000000001</v>
@@ -8485,10 +8485,10 @@
         <v>13.91017173051519</v>
       </c>
       <c r="E352">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F352">
-        <v>8371.809775429327</v>
+        <v>8471.809775429327</v>
       </c>
       <c r="G352">
         <v>9267.102000000001</v>
@@ -8508,10 +8508,10 @@
         <v>13.94980184940555</v>
       </c>
       <c r="E353">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F353">
-        <v>8384.834874504624</v>
+        <v>8484.834874504624</v>
       </c>
       <c r="G353">
         <v>9293.504000000001</v>
@@ -8531,10 +8531,10 @@
         <v>13.9894319682959</v>
       </c>
       <c r="E354">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F354">
-        <v>8397.859973579922</v>
+        <v>8497.859973579922</v>
       </c>
       <c r="G354">
         <v>9319.906000000001</v>
@@ -8554,10 +8554,10 @@
         <v>14.02906208718626</v>
       </c>
       <c r="E355">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F355">
-        <v>8410.885072655219</v>
+        <v>8510.885072655219</v>
       </c>
       <c r="G355">
         <v>9346.308000000001</v>
@@ -8577,10 +8577,10 @@
         <v>14.06869220607662</v>
       </c>
       <c r="E356">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F356">
-        <v>8423.910171730517</v>
+        <v>8523.910171730517</v>
       </c>
       <c r="G356">
         <v>9372.710000000001</v>
@@ -8600,10 +8600,10 @@
         <v>14.10832232496697</v>
       </c>
       <c r="E357">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F357">
-        <v>8436.935270805812</v>
+        <v>8536.935270805812</v>
       </c>
       <c r="G357">
         <v>9399.112000000001</v>
@@ -8623,10 +8623,10 @@
         <v>14.14795244385733</v>
       </c>
       <c r="E358">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F358">
-        <v>8449.96036988111</v>
+        <v>8549.96036988111</v>
       </c>
       <c r="G358">
         <v>9425.514000000001</v>
@@ -8646,10 +8646,10 @@
         <v>14.18758256274769</v>
       </c>
       <c r="E359">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F359">
-        <v>8462.985468956405</v>
+        <v>8562.985468956405</v>
       </c>
       <c r="G359">
         <v>9451.916000000001</v>
@@ -8669,10 +8669,10 @@
         <v>14.22721268163804</v>
       </c>
       <c r="E360">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F360">
-        <v>8476.010568031703</v>
+        <v>8576.010568031703</v>
       </c>
       <c r="G360">
         <v>9478.318000000001</v>
@@ -8692,10 +8692,10 @@
         <v>14.2668428005284</v>
       </c>
       <c r="E361">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F361">
-        <v>8489.035667107</v>
+        <v>8589.035667107</v>
       </c>
       <c r="G361">
         <v>9504.720000000001</v>
@@ -8715,10 +8715,10 @@
         <v>14.30647291941876</v>
       </c>
       <c r="E362">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F362">
-        <v>8502.060766182298</v>
+        <v>8602.060766182298</v>
       </c>
       <c r="G362">
         <v>9531.122000000001</v>
@@ -8738,10 +8738,10 @@
         <v>14.34610303830911</v>
       </c>
       <c r="E363">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F363">
-        <v>8515.085865257595</v>
+        <v>8615.085865257595</v>
       </c>
       <c r="G363">
         <v>9557.524000000001</v>
@@ -8761,10 +8761,10 @@
         <v>14.38573315719947</v>
       </c>
       <c r="E364">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F364">
-        <v>8528.110964332893</v>
+        <v>8628.110964332893</v>
       </c>
       <c r="G364">
         <v>9583.925999999999</v>
@@ -8784,10 +8784,10 @@
         <v>14.42536327608983</v>
       </c>
       <c r="E365">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F365">
-        <v>8541.13606340819</v>
+        <v>8641.13606340819</v>
       </c>
       <c r="G365">
         <v>9610.328</v>
@@ -8807,10 +8807,10 @@
         <v>14.46499339498018</v>
       </c>
       <c r="E366">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F366">
-        <v>8554.161162483488</v>
+        <v>8654.161162483488</v>
       </c>
       <c r="G366">
         <v>9636.73</v>
@@ -8830,10 +8830,10 @@
         <v>14.50462351387054</v>
       </c>
       <c r="E367">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F367">
-        <v>8567.186261558785</v>
+        <v>8667.186261558785</v>
       </c>
       <c r="G367">
         <v>9663.132</v>
@@ -8853,10 +8853,10 @@
         <v>14.5442536327609</v>
       </c>
       <c r="E368">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F368">
-        <v>8580.211360634083</v>
+        <v>8680.211360634083</v>
       </c>
       <c r="G368">
         <v>9689.534</v>
@@ -8876,10 +8876,10 @@
         <v>14.58388375165125</v>
       </c>
       <c r="E369">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F369">
-        <v>8593.236459709378</v>
+        <v>8693.236459709378</v>
       </c>
       <c r="G369">
         <v>9715.936</v>
@@ -8899,10 +8899,10 @@
         <v>14.62351387054161</v>
       </c>
       <c r="E370">
-        <v>3802.113606340819</v>
+        <v>3900</v>
       </c>
       <c r="F370">
-        <v>8608.375165125495</v>
+        <v>8706.261558784676</v>
       </c>
       <c r="G370">
         <v>9742.338</v>
@@ -8922,10 +8922,10 @@
         <v>14.66314398943197</v>
       </c>
       <c r="E371">
-        <v>3812.417437252312</v>
+        <v>3900</v>
       </c>
       <c r="F371">
-        <v>8631.704095112285</v>
+        <v>8719.286657859973</v>
       </c>
       <c r="G371">
         <v>9768.74</v>
@@ -8945,10 +8945,10 @@
         <v>14.70277410832233</v>
       </c>
       <c r="E372">
-        <v>3822.721268163805</v>
+        <v>3900</v>
       </c>
       <c r="F372">
-        <v>8655.033025099076</v>
+        <v>8732.311756935271</v>
       </c>
       <c r="G372">
         <v>9795.142</v>
@@ -8968,10 +8968,10 @@
         <v>14.74240422721268</v>
       </c>
       <c r="E373">
-        <v>3833.025099075297</v>
+        <v>3900</v>
       </c>
       <c r="F373">
-        <v>8678.361955085866</v>
+        <v>8745.336856010568</v>
       </c>
       <c r="G373">
         <v>9821.544</v>
@@ -8991,10 +8991,10 @@
         <v>14.78203434610304</v>
       </c>
       <c r="E374">
-        <v>3843.32892998679</v>
+        <v>3900</v>
       </c>
       <c r="F374">
-        <v>8701.690885072654</v>
+        <v>8758.361955085864</v>
       </c>
       <c r="G374">
         <v>9847.946</v>
@@ -9014,10 +9014,10 @@
         <v>14.8216644649934</v>
       </c>
       <c r="E375">
-        <v>3853.632760898283</v>
+        <v>3900</v>
       </c>
       <c r="F375">
-        <v>8725.019815059444</v>
+        <v>8771.387054161161</v>
       </c>
       <c r="G375">
         <v>9874.348</v>
@@ -9037,10 +9037,10 @@
         <v>14.86129458388375</v>
       </c>
       <c r="E376">
-        <v>3863.936591809776</v>
+        <v>3900</v>
       </c>
       <c r="F376">
-        <v>8748.348745046234</v>
+        <v>8784.412153236459</v>
       </c>
       <c r="G376">
         <v>9900.75</v>
@@ -9060,10 +9060,10 @@
         <v>14.90092470277411</v>
       </c>
       <c r="E377">
-        <v>3874.240422721268</v>
+        <v>3900</v>
       </c>
       <c r="F377">
-        <v>8771.677675033025</v>
+        <v>8797.437252311756</v>
       </c>
       <c r="G377">
         <v>9927.152</v>
@@ -9083,10 +9083,10 @@
         <v>14.94055482166447</v>
       </c>
       <c r="E378">
-        <v>3884.544253632761</v>
+        <v>3900</v>
       </c>
       <c r="F378">
-        <v>8795.006605019815</v>
+        <v>8810.462351387054</v>
       </c>
       <c r="G378">
         <v>9953.554</v>
@@ -9106,10 +9106,10 @@
         <v>14.98018494055482</v>
       </c>
       <c r="E379">
-        <v>3894.848084544254</v>
+        <v>3900</v>
       </c>
       <c r="F379">
-        <v>8818.335535006605</v>
+        <v>8823.487450462351</v>
       </c>
       <c r="G379">
         <v>9979.956</v>
